--- a/owlcms/src/main/resources/templates/competitionResults/MastersResults-LEGAL.xlsx
+++ b/owlcms/src/main/resources/templates/competitionResults/MastersResults-LEGAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B41F6A-E18B-4B2B-9A95-E51826167EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81DAB6CD-2935-4389-808F-B9A5E694376E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="2235" windowWidth="23985" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2925" windowWidth="23985" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -358,9 +358,6 @@
     <t>${l.totalRank &lt; 0 ? "inv." : (l.totalRank &gt; 0 ? l.totalRank : "" )}</t>
   </si>
   <si>
-    <t>${t.get("QAGE")}</t>
-  </si>
-  <si>
     <t>${t.get("smhf")}</t>
   </si>
   <si>
@@ -368,6 +365,9 @@
   </si>
   <si>
     <t>${l.smm}</t>
+  </si>
+  <si>
+    <t>${t.get("Results.QAGE")}</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1728,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
@@ -1744,7 +1744,7 @@
     <col min="16" max="18" width="7.7109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="7.7109375" customWidth="1"/>
     <col min="20" max="20" width="8.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" style="1" customWidth="1"/>
     <col min="22" max="22" width="10.140625" style="3" customWidth="1"/>
     <col min="23" max="23" width="10.140625" style="1" customWidth="1"/>
     <col min="24" max="24" width="8.140625" style="1" hidden="1" customWidth="1"/>
@@ -1881,10 +1881,10 @@
         <v>45</v>
       </c>
       <c r="U6" s="101" t="s">
+        <v>73</v>
+      </c>
+      <c r="V6" s="103" t="s">
         <v>70</v>
-      </c>
-      <c r="V6" s="103" t="s">
-        <v>71</v>
       </c>
       <c r="X6"/>
     </row>
@@ -2047,10 +2047,10 @@
         <v>69</v>
       </c>
       <c r="U10" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="V10" s="94" t="s">
         <v>72</v>
-      </c>
-      <c r="V10" s="94" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2582,7 +2582,7 @@
     <hyperlink ref="A4" r:id="rId2" display="records@federation.org" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.31496062992125984" right="0.35433070866141736" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
-  <pageSetup scale="66" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="5" scale="83" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId4"/>
 </worksheet>
